--- a/Gaohe Coal Mine, China, M0218.xlsx
+++ b/Gaohe Coal Mine, China, M0218.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'mines - January 30 (built on January 30 2026 16.19.47 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on January 30 2026 16.19.47 EST)</t>
+          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">

--- a/Gaohe Coal Mine, China, M0218.xlsx
+++ b/Gaohe Coal Mine, China, M0218.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'mines - January 30 (built on February 02 2026 12.49.33 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - January 30 (built on February 02 2026 12.49.33 EST)</t>
+          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">

--- a/Gaohe Coal Mine, China, M0218.xlsx
+++ b/Gaohe Coal Mine, China, M0218.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>mines - version 1.0.0 (Feb 3 2026) (built on February 03 2026 10.14.00 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">

--- a/Gaohe Coal Mine, China, M0218.xlsx
+++ b/Gaohe Coal Mine, China, M0218.xlsx
@@ -428,7 +428,7 @@
     <row r="2" ht="15.75" customHeight="1" s="12">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Version: Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="H2" s="2" t="n"/>
@@ -534,7 +534,7 @@
     <row r="6" ht="15.75" customHeight="1" s="12">
       <c r="A6" s="7" t="inlineStr">
         <is>
-          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
+          <t>Recommended Citation:  "Global Energy Monitor, Coal mine boundaries and methane sources for Gaohe Coal Mine, China, M0218, version 'Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)'. (See the CC license for attribution requirements if sharing or adapting the data set.)</t>
         </is>
       </c>
       <c r="H6" s="2" t="n"/>
@@ -2272,7 +2272,7 @@
       </c>
       <c r="S2" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T2" s="0" t="inlineStr">
@@ -2370,7 +2370,7 @@
       </c>
       <c r="S3" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T3" s="0" t="inlineStr">
@@ -2468,7 +2468,7 @@
       </c>
       <c r="S4" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T4" s="0" t="inlineStr">
@@ -2566,7 +2566,7 @@
       </c>
       <c r="S5" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T5" s="0" t="inlineStr">
@@ -2664,7 +2664,7 @@
       </c>
       <c r="S6" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T6" s="0" t="inlineStr">
@@ -2762,7 +2762,7 @@
       </c>
       <c r="S7" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T7" s="0" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="S8" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T8" s="0" t="inlineStr">
@@ -2958,7 +2958,7 @@
       </c>
       <c r="S9" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T9" s="0" t="inlineStr">
@@ -3056,7 +3056,7 @@
       </c>
       <c r="S10" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T10" s="0" t="inlineStr">
@@ -3154,7 +3154,7 @@
       </c>
       <c r="S11" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T11" s="0" t="inlineStr">
@@ -3252,7 +3252,7 @@
       </c>
       <c r="S12" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T12" s="0" t="inlineStr">
@@ -3350,7 +3350,7 @@
       </c>
       <c r="S13" s="0" t="inlineStr">
         <is>
-          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 17.29.55 EST)</t>
+          <t>Coal Mine Boundaries and Methane Sources - version 1.0.0 (built on February 03 2026 18.05.36 EST)</t>
         </is>
       </c>
       <c r="T13" s="0" t="inlineStr">
